--- a/content/plastiq_input_information.xlsx
+++ b/content/plastiq_input_information.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-1965" windowWidth="18240" windowHeight="28440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="contact_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="company_data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="product_data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -135,6 +137,23 @@
     <tableColumn id="6" name="Position"/>
     <tableColumn id="7" name="Mail"/>
     <tableColumn id="8" name="Telefonnummer"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:H1048576" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:H1048576"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID_Unternehmen"/>
+    <tableColumn id="2" name="Zeit_UTC"/>
+    <tableColumn id="3" name="Unternehmen_Name"/>
+    <tableColumn id="4" name="Strasse"/>
+    <tableColumn id="5" name="Postleitzahl"/>
+    <tableColumn id="6" name="Stadt"/>
+    <tableColumn id="7" name="Bundesland"/>
+    <tableColumn id="8" name="Land"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -441,18 +460,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="12.36328125" customWidth="1" min="1" max="1"/>
-    <col width="11.7265625" customWidth="1" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" min="5" max="5"/>
-    <col width="16.26953125" customWidth="1" min="8" max="8"/>
+    <col width="12.42578125" customWidth="1" min="1" max="1"/>
+    <col width="11.7109375" customWidth="1" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" min="5" max="5"/>
+    <col width="16.28515625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -503,7 +522,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-08-30 13:54:25</t>
+          <t>2024-09-02 12:00:08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,12 +532,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stefan</t>
+          <t>Stefna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SKZ KFE gGmbH</t>
+          <t>SKZ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,7 +552,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+49 157 86027870</t>
+          <t>0150</t>
         </is>
       </c>
     </row>
@@ -543,37 +562,352 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-08-30 13:54:54</t>
+          <t>2024-09-02 12:06:10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Triess</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:30:33</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:33:12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:01:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Trieß</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dzrg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scientist</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:03:05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KSZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:17:51</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:17:57</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:20:29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:21:56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:25:13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:25:30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:26:52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:32:01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:36:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:37:11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:38:19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:41:27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SKZ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:41:46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SKZ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:56:53</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Trieß</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-09-04 11:28:38</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Stefan</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SKZ KFE gGmbH</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Trieß</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Scientist</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>s.triess@skz.de</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>+49 157 86027870</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -583,4 +917,1907 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="13.5703125" customWidth="1" min="5" max="5"/>
+    <col width="13.5703125" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID_Unternehmen</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Zeit_UTC</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Unternehmen_Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Strasse</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Postleitzahl</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Stadt</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Bundesland</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:00:53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SKZ 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring 22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:19:01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fre</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:29:40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hessen</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:30:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:30:21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hessen</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:30:40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tsdtst</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hessen</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:33:34</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-09-03 06:55:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:32:07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:37:28</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:40:10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:41:32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SKZ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:34:21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring 22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:34:21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring 22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['2024-09-03 08:36:12']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[44.933143]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[7.540121]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:36:49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:38:38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:16</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:25</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:29</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>49.77972785</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.934263842829361</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:34</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>49.77972785</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.934263842829361</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:39:43</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>49.77972785</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9.934263842829361</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:41:05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>49.77972785</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.934263842829361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:41:10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Uhlandstraße 18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97072</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:48:06</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:49:25</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:50:00</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:50:21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>48.53775</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.041169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:51:44</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:52:26</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:53:06</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:53:48</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:57:14</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:57:18</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:58:28</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:59:19</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:59:44</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:03:23</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:29:25</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:29:43</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:35:20</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:50:55</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:04:44</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:04:59</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:05:37</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:13:54</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring 22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['Trocknen', 'Thermische Verwertung', 'Abfallzerkleinerung']</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>49.80282025</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10.00010726291456</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:25:43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Antigua und Barbuda</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:35:26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>53.550341</v>
+      </c>
+      <c r="M52" t="n">
+        <v>10.000654</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:35:41</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Antigua und Barbuda</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>17.2234721</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-61.9554608</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:41:36</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:41:55</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:42:12</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M56" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:42:17</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M57" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:43:24</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M58" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:43:34</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M59" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:43:50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ert</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-09-04 11:29:12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SKZ</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Trocknen', 'Thermische Verwertung', 'Abfallzerkleinerung']</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>49.7978664</v>
+      </c>
+      <c r="M61" t="n">
+        <v>10.0011368</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:55:26</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>44.933143</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7.540121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-09-06 09:12:36</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Kunststoff – PP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-06 11:32:52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Kunststoff – ASA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:34:38</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kunststoff – ABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:35:18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kunststoff – ABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:38:31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – Duroplaste']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.0, 50.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:47:22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ABS']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:54:58</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ABS', 'Kunststoff – ABS', 'Kunststoff – ABS']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:55:20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ABS']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/content/plastiq_input_information.xlsx
+++ b/content/plastiq_input_information.xlsx
@@ -9,6 +9,10 @@
     <sheet name="contact_data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="company_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="product_data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="product_origin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="product_fractions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="product_quality" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="product_amount" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2635,19 +2639,12 @@
           <t>2024-09-06 12:55:26</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>44.933143</v>
       </c>
@@ -2669,7 +2666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,6 +2814,670 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-09-16 09:30:27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ASA']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['ABS-Test', 'ASA-Test']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[90.0, 10.0]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:10:56</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Post-Consumer (PC) – getrennte Sammlung</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>lokal als Bringsystem</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12 15 15*</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:12:05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Post-Consumer (PC) – getrennte Sammlung</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:15:18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Post-Industrial (PI)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:19:11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Post-Industrial (PI)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:19:24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Post-Consumer (PC) – getrennte Sammlung</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lokal als Bringsystem</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15215</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:17:48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Post-Industrial (PI)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-17 10:57:36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Post-Industrial (PI)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:11:21</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ASA']</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:17:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ABS']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-17 10:57:24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Kunststoff – ABS', 'Kunststoff – ASA']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:03:27</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>blau</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keine</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>['Antibeschlagmittel', 'Antibeschlagmittel']</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:03:50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>blau</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>keine</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Antibeschlagmittel', 'Antibeschlagmittel']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:08:01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>blau</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>keine</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Antibeschlagmittel', 'Antibeschlagmittel', 'Antibeschlagmittel']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:19:33</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[['Antioxidant'], ['Gleitmittel']]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:19:47</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[['Antioxidant', 'Biozide', 'Gleitmittel'], ['Gleitmittel', 'Antioxidant']]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:22:09</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[[], [], []]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[['Glimmer'], ['Ruß'], ['Glaskugeln', 'Glimmer', 'Glasfasern']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:26:11</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[['Gleitmittel'], [], []]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[[], [], []]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:28:15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[[], [], []]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[[], [], []]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:39:13</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:40:18</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:40:36</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:41:38</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Woche</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/content/plastiq_input_information.xlsx
+++ b/content/plastiq_input_information.xlsx
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
@@ -800,6 +800,58 @@
         <v>10.00010726291456</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-11-22 14:39:28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SKZ </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Friedrich-Bergius-Ring 22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97076</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49.80282025</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10.00010726291456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -814,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E18"/>
@@ -1453,6 +1505,56 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>[30.0, 30.0, 40.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-11-22 14:40:39</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['PE-LD', 'PE-HD', 'PS']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['', '', '']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[80.0, 10.0, 10.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-11-26 08:05:30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['PE-LD', 'PP', 'Kupfer']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['', '', '']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[80.0, 10.0, 10.0]</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
@@ -1995,8 +2097,40 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-11-22 14:40:50</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-11-26 08:05:43</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
